--- a/runs/run644/NotionalETEOutput644.xlsx
+++ b/runs/run644/NotionalETEOutput644.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND2_State_Update</t>
+    <t>Missile_BRAVER0_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND2_15.MISSILE_HIGHWIND2_15</t>
+    <t>MISSILE_BRAVER0_56.MISSILE_BRAVER0_56</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND2</t>
+    <t>MISSILE_BRAVER0</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1540.039496670568</v>
+        <v>-1511.365880062634</v>
       </c>
       <c r="J2">
-        <v>2044.110743973806</v>
+        <v>2001.89430409807</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1486.211797117346</v>
+        <v>-1413.041224317815</v>
       </c>
       <c r="J3">
-        <v>2007.350024434988</v>
+        <v>2012.690109996002</v>
       </c>
       <c r="K3">
-        <v>314.6198656993724</v>
+        <v>310.0290850872734</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1423.456439086259</v>
+        <v>-1482.092873943768</v>
       </c>
       <c r="J4">
-        <v>1940.164031227927</v>
+        <v>1857.765383499567</v>
       </c>
       <c r="K4">
-        <v>579.8096937749772</v>
+        <v>586.6064858952133</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1344.547068990888</v>
+        <v>-1428.840186463974</v>
       </c>
       <c r="J5">
-        <v>1762.584709517036</v>
+        <v>1875.349965617643</v>
       </c>
       <c r="K5">
-        <v>895.589095534124</v>
+        <v>833.8755186372498</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1423.115446002595</v>
+        <v>-1327.425734087874</v>
       </c>
       <c r="J6">
-        <v>1873.999810010892</v>
+        <v>1893.594956748074</v>
       </c>
       <c r="K6">
-        <v>1126.568933305621</v>
+        <v>1102.629137876154</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1313.252480630175</v>
+        <v>-1305.101202159664</v>
       </c>
       <c r="J7">
-        <v>1716.685432597038</v>
+        <v>1782.197216471057</v>
       </c>
       <c r="K7">
-        <v>1307.634705718192</v>
+        <v>1420.395457114835</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1335.46849099845</v>
+        <v>-1346.05922993962</v>
       </c>
       <c r="J8">
-        <v>1768.913807900118</v>
+        <v>1729.520432955161</v>
       </c>
       <c r="K8">
-        <v>1586.374186108411</v>
+        <v>1642.435542340259</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-95.61264481768175</v>
+        <v>-101.4993411959493</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1276.044735317606</v>
+        <v>-1321.535244791464</v>
       </c>
       <c r="J9">
-        <v>1730.918655568452</v>
+        <v>1690.842205459014</v>
       </c>
       <c r="K9">
-        <v>1756.746403531852</v>
+        <v>1885.146517709152</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>225.4196262900966</v>
+        <v>214.9647238250299</v>
       </c>
       <c r="G10">
-        <v>-86.16044498101846</v>
+        <v>-80.05683128218644</v>
       </c>
       <c r="H10">
-        <v>880.1032729918536</v>
+        <v>845.9190472663626</v>
       </c>
       <c r="I10">
-        <v>-1190.500613876328</v>
+        <v>-1210.704982218026</v>
       </c>
       <c r="J10">
-        <v>1611.993920042107</v>
+        <v>1561.999068425306</v>
       </c>
       <c r="K10">
-        <v>2090.097628826303</v>
+        <v>2050.986341575137</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>176.6400517901144</v>
+        <v>167.3158940542763</v>
       </c>
       <c r="G11">
-        <v>-66.93275347478084</v>
+        <v>-68.33507785193986</v>
       </c>
       <c r="H11">
-        <v>1034.399383036635</v>
+        <v>1088.499068281356</v>
       </c>
       <c r="I11">
-        <v>-1187.226734847588</v>
+        <v>-1188.94930010184</v>
       </c>
       <c r="J11">
-        <v>1552.932947012525</v>
+        <v>1544.739065973199</v>
       </c>
       <c r="K11">
-        <v>2252.061209057667</v>
+        <v>2231.204878525495</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>133.8069959547561</v>
+        <v>135.2865726326185</v>
       </c>
       <c r="G12">
-        <v>-51.58075498400044</v>
+        <v>-49.0228647134278</v>
       </c>
       <c r="H12">
-        <v>1158.057422458792</v>
+        <v>1197.273404216715</v>
       </c>
       <c r="I12">
-        <v>-1179.501332292461</v>
+        <v>-1111.017092976296</v>
       </c>
       <c r="J12">
-        <v>1506.748406143389</v>
+        <v>1580.576248939288</v>
       </c>
       <c r="K12">
-        <v>2354.922026056153</v>
+        <v>2471.354578601848</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>126.9908057537914</v>
+        <v>127.3213977741928</v>
       </c>
       <c r="G13">
-        <v>-32.62319869517323</v>
+        <v>-34.02406863685682</v>
       </c>
       <c r="H13">
-        <v>1223.314410332051</v>
+        <v>1221.050327547783</v>
       </c>
       <c r="I13">
-        <v>-1092.211271853625</v>
+        <v>-1116.584342159571</v>
       </c>
       <c r="J13">
-        <v>1442.469582673585</v>
+        <v>1517.938961708897</v>
       </c>
       <c r="K13">
-        <v>2622.040742278326</v>
+        <v>2487.743220506654</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>107.6200055041988</v>
+        <v>112.2897308453404</v>
       </c>
       <c r="G14">
-        <v>-17.53185047647841</v>
+        <v>-18.30636294375061</v>
       </c>
       <c r="H14">
-        <v>1322.603371938629</v>
+        <v>1361.973139111729</v>
       </c>
       <c r="I14">
-        <v>-1087.272427725594</v>
+        <v>-1070.553848852254</v>
       </c>
       <c r="J14">
-        <v>1443.769545214774</v>
+        <v>1465.653741782423</v>
       </c>
       <c r="K14">
-        <v>2609.211425469584</v>
+        <v>2718.123171424827</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>100.8089208084192</v>
+        <v>96.31294942212094</v>
       </c>
       <c r="G15">
-        <v>-0.8945457059174324</v>
+        <v>-0.9047550892162484</v>
       </c>
       <c r="H15">
-        <v>1409.602928821182</v>
+        <v>1332.512040344367</v>
       </c>
       <c r="I15">
-        <v>-1052.412130672594</v>
+        <v>-1058.495916558522</v>
       </c>
       <c r="J15">
-        <v>1315.260257725213</v>
+        <v>1409.048197924091</v>
       </c>
       <c r="K15">
-        <v>2889.098523818466</v>
+        <v>2895.578651876541</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>94.63380103276367</v>
+        <v>96.94480281035167</v>
       </c>
       <c r="G16">
-        <v>15.31167904225017</v>
+        <v>15.44394798365876</v>
       </c>
       <c r="H16">
-        <v>1442.66181148</v>
+        <v>1481.413532268287</v>
       </c>
       <c r="I16">
-        <v>-1055.657821007678</v>
+        <v>-963.6063556419451</v>
       </c>
       <c r="J16">
-        <v>1274.871826446086</v>
+        <v>1264.735301433268</v>
       </c>
       <c r="K16">
-        <v>2792.618813127438</v>
+        <v>2876.470547997786</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>90.6884420162564</v>
+        <v>88.14671776309348</v>
       </c>
       <c r="G17">
-        <v>32.85909357250515</v>
+        <v>32.40158133681822</v>
       </c>
       <c r="H17">
-        <v>1399.555102122607</v>
+        <v>1404.160883914521</v>
       </c>
       <c r="I17">
-        <v>-932.2070652948707</v>
+        <v>-955.9166657438433</v>
       </c>
       <c r="J17">
-        <v>1225.79213624028</v>
+        <v>1319.830952243535</v>
       </c>
       <c r="K17">
-        <v>2875.687090692322</v>
+        <v>3078.243338450309</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>84.65987565784575</v>
+        <v>83.07399001528731</v>
       </c>
       <c r="G18">
-        <v>49.65734132172367</v>
+        <v>48.5343844934085</v>
       </c>
       <c r="H18">
-        <v>1570.077595776895</v>
+        <v>1549.880432147238</v>
       </c>
       <c r="I18">
-        <v>-918.6002885076437</v>
+        <v>-950.7690802339704</v>
       </c>
       <c r="J18">
-        <v>1232.183984556048</v>
+        <v>1280.42867844211</v>
       </c>
       <c r="K18">
-        <v>3014.701101595861</v>
+        <v>2900.270452888822</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>80.7165352213464</v>
+        <v>75.19176915091748</v>
       </c>
       <c r="G19">
-        <v>64.59701624694188</v>
+        <v>67.80137035559154</v>
       </c>
       <c r="H19">
-        <v>1576.563797498839</v>
+        <v>1494.934135252553</v>
       </c>
       <c r="I19">
-        <v>-870.515329252246</v>
+        <v>-896.3885352971264</v>
       </c>
       <c r="J19">
-        <v>1177.657310982445</v>
+        <v>1214.337101428366</v>
       </c>
       <c r="K19">
-        <v>3256.58256031794</v>
+        <v>2970.592983848931</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>72.66743600231321</v>
+        <v>76.6551388218748</v>
       </c>
       <c r="G20">
-        <v>79.37715262080637</v>
+        <v>78.87897383066239</v>
       </c>
       <c r="H20">
-        <v>1601.896746360314</v>
+        <v>1518.893665021141</v>
       </c>
       <c r="I20">
-        <v>-870.9617814368877</v>
+        <v>-858.4596125728468</v>
       </c>
       <c r="J20">
-        <v>1166.340969761334</v>
+        <v>1136.879858728057</v>
       </c>
       <c r="K20">
-        <v>3032.807984836012</v>
+        <v>3210.576162401524</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>67.91436218883497</v>
+        <v>73.99437809366404</v>
       </c>
       <c r="G21">
-        <v>100.4945175759238</v>
+        <v>98.70837215588244</v>
       </c>
       <c r="H21">
-        <v>1666.573486655131</v>
+        <v>1571.071212849057</v>
       </c>
       <c r="I21">
-        <v>-827.8827175297673</v>
+        <v>-825.3624578977635</v>
       </c>
       <c r="J21">
-        <v>1103.47862836253</v>
+        <v>1080.198855646045</v>
       </c>
       <c r="K21">
-        <v>3139.144758535589</v>
+        <v>3107.366267542823</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>68.60152713848284</v>
+        <v>66.89637331199771</v>
       </c>
       <c r="G22">
-        <v>116.6116571742054</v>
+        <v>111.32738836779</v>
       </c>
       <c r="H22">
-        <v>1669.702488501665</v>
+        <v>1550.836690402941</v>
       </c>
       <c r="I22">
-        <v>-771.5448588066721</v>
+        <v>-741.8613257546126</v>
       </c>
       <c r="J22">
-        <v>977.6423121583356</v>
+        <v>985.6236331961037</v>
       </c>
       <c r="K22">
-        <v>3044.419474730347</v>
+        <v>3331.300393835293</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>68.85393603942654</v>
+        <v>66.92402033843673</v>
       </c>
       <c r="G23">
-        <v>136.0294921092173</v>
+        <v>127.8291880529304</v>
       </c>
       <c r="H23">
-        <v>1599.803141261515</v>
+        <v>1616.287398043261</v>
       </c>
       <c r="I23">
-        <v>-710.204664752882</v>
+        <v>-699.0823150341128</v>
       </c>
       <c r="J23">
-        <v>982.0424610241741</v>
+        <v>991.3575123256426</v>
       </c>
       <c r="K23">
-        <v>3277.289693900814</v>
+        <v>3055.958454220335</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>62.64671124971438</v>
+        <v>60.86100019233336</v>
       </c>
       <c r="G24">
-        <v>145.7118462244661</v>
+        <v>153.8677510228958</v>
       </c>
       <c r="H24">
-        <v>1661.091509143665</v>
+        <v>1678.162771754281</v>
       </c>
       <c r="I24">
-        <v>-638.75812053909</v>
+        <v>-641.795686957583</v>
       </c>
       <c r="J24">
-        <v>907.7642384947956</v>
+        <v>886.9930852254126</v>
       </c>
       <c r="K24">
-        <v>3037.382669350455</v>
+        <v>3285.317508320018</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>61.24534772418755</v>
+        <v>60.41534359405198</v>
       </c>
       <c r="G25">
-        <v>172.3748966493153</v>
+        <v>169.6987674710962</v>
       </c>
       <c r="H25">
-        <v>1672.666043513965</v>
+        <v>1671.106763127548</v>
       </c>
       <c r="I25">
-        <v>-625.8402921009796</v>
+        <v>-588.5020826598296</v>
       </c>
       <c r="J25">
-        <v>917.9589639198159</v>
+        <v>924.9759455888055</v>
       </c>
       <c r="K25">
-        <v>3300.735998227932</v>
+        <v>3086.372289814377</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>62.16997057822027</v>
+        <v>59.6455280524978</v>
       </c>
       <c r="G26">
-        <v>179.9827536121947</v>
+        <v>175.4597749759747</v>
       </c>
       <c r="H26">
-        <v>1628.560129851433</v>
+        <v>1730.994866955648</v>
       </c>
       <c r="I26">
-        <v>-546.763405315158</v>
+        <v>-545.187139058281</v>
       </c>
       <c r="J26">
-        <v>862.3807765388332</v>
+        <v>853.549264431085</v>
       </c>
       <c r="K26">
-        <v>3166.390322390128</v>
+        <v>3087.129584092722</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>57.54588717780158</v>
+        <v>59.11860780008708</v>
       </c>
       <c r="G27">
-        <v>201.3639988864004</v>
+        <v>205.0978349970912</v>
       </c>
       <c r="H27">
-        <v>1670.033700086356</v>
+        <v>1778.348180780226</v>
       </c>
       <c r="I27">
-        <v>-498.3137116860854</v>
+        <v>-495.8943164185837</v>
       </c>
       <c r="J27">
-        <v>810.9712797034954</v>
+        <v>753.0338868898964</v>
       </c>
       <c r="K27">
-        <v>3121.631429157548</v>
+        <v>2898.33162142403</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>53.70649443098304</v>
+        <v>57.55297358472095</v>
       </c>
       <c r="G28">
-        <v>217.0885479464556</v>
+        <v>217.6939308040704</v>
       </c>
       <c r="H28">
-        <v>1807.314123997128</v>
+        <v>1648.838883477192</v>
       </c>
       <c r="I28">
-        <v>-423.9203384109206</v>
+        <v>-454.5031784412952</v>
       </c>
       <c r="J28">
-        <v>765.1976246496936</v>
+        <v>706.9701982151215</v>
       </c>
       <c r="K28">
-        <v>2941.295435545209</v>
+        <v>3088.169553546657</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>53.83695592632255</v>
+        <v>57.13516735480052</v>
       </c>
       <c r="G29">
-        <v>236.2682072007308</v>
+        <v>223.9495856301998</v>
       </c>
       <c r="H29">
-        <v>1780.833991124051</v>
+        <v>1775.076361961867</v>
       </c>
       <c r="I29">
-        <v>-364.5937383037628</v>
+        <v>-383.4327671436965</v>
       </c>
       <c r="J29">
-        <v>690.0507312767681</v>
+        <v>682.7354213985772</v>
       </c>
       <c r="K29">
-        <v>2754.628280330318</v>
+        <v>3000.389576463866</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>53.31465649277262</v>
+        <v>56.06728232378963</v>
       </c>
       <c r="G30">
-        <v>252.9880530899549</v>
+        <v>245.2822852202362</v>
       </c>
       <c r="H30">
-        <v>1838.968420928257</v>
+        <v>1814.744618524532</v>
       </c>
       <c r="I30">
-        <v>-314.6490981660535</v>
+        <v>-311.21453273086</v>
       </c>
       <c r="J30">
-        <v>614.294676678892</v>
+        <v>645.7147273886911</v>
       </c>
       <c r="K30">
-        <v>2756.523499245305</v>
+        <v>2753.30367847699</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>50.291300712229</v>
+        <v>53.06046052563121</v>
       </c>
       <c r="G31">
-        <v>263.5733758187504</v>
+        <v>262.3381558591083</v>
       </c>
       <c r="H31">
-        <v>1750.582841734226</v>
+        <v>1807.473843893193</v>
       </c>
       <c r="I31">
-        <v>-259.3566122638771</v>
+        <v>-261.3025914411094</v>
       </c>
       <c r="J31">
-        <v>596.4586318426819</v>
+        <v>562.412092821639</v>
       </c>
       <c r="K31">
-        <v>2619.540262955564</v>
+        <v>2588.497887342772</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>51.73130672502702</v>
+        <v>50.65970687527862</v>
       </c>
       <c r="G32">
-        <v>276.3975894125862</v>
+        <v>268.6973993758799</v>
       </c>
       <c r="H32">
-        <v>1834.594485793357</v>
+        <v>1738.033678382587</v>
       </c>
       <c r="I32">
-        <v>-206.2783747180549</v>
+        <v>-216.0979898399966</v>
       </c>
       <c r="J32">
-        <v>544.8972935038721</v>
+        <v>522.9703417813597</v>
       </c>
       <c r="K32">
-        <v>2559.59310289458</v>
+        <v>2605.135692890237</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>50.38968749800901</v>
+        <v>48.30923902856056</v>
       </c>
       <c r="G33">
-        <v>287.4428161624338</v>
+        <v>288.3688204108545</v>
       </c>
       <c r="H33">
-        <v>1754.170688553248</v>
+        <v>1756.128757281839</v>
       </c>
       <c r="I33">
-        <v>-146.5781925683423</v>
+        <v>-142.7002635433633</v>
       </c>
       <c r="J33">
-        <v>513.0570673216876</v>
+        <v>503.8852912445253</v>
       </c>
       <c r="K33">
-        <v>2470.103417217116</v>
+        <v>2433.667219466157</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>50.59122132909802</v>
+        <v>50.65703277001161</v>
       </c>
       <c r="G34">
-        <v>328.0653036867389</v>
+        <v>308.0893375767972</v>
       </c>
       <c r="H34">
-        <v>1881.509328006897</v>
+        <v>1855.881730554731</v>
       </c>
       <c r="I34">
-        <v>-79.82453394843344</v>
+        <v>-82.62103829332499</v>
       </c>
       <c r="J34">
-        <v>447.386013115462</v>
+        <v>453.0012794768656</v>
       </c>
       <c r="K34">
-        <v>2198.181911189487</v>
+        <v>2198.13657349609</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>46.18385904214876</v>
+        <v>45.86414750336218</v>
       </c>
       <c r="G35">
-        <v>335.3652986830339</v>
+        <v>315.6911835846417</v>
       </c>
       <c r="H35">
-        <v>1811.658578011566</v>
+        <v>1746.778271569332</v>
       </c>
       <c r="I35">
-        <v>-19.59402816870849</v>
+        <v>-18.28804051695901</v>
       </c>
       <c r="J35">
-        <v>404.9754218731153</v>
+        <v>395.6236870878232</v>
       </c>
       <c r="K35">
-        <v>1951.961629816499</v>
+        <v>2087.22112383922</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>45.07595618561604</v>
+        <v>48.27218522847568</v>
       </c>
       <c r="G36">
-        <v>339.4395722032994</v>
+        <v>354.1211424028971</v>
       </c>
       <c r="H36">
-        <v>1805.22372557026</v>
+        <v>1781.164525568318</v>
       </c>
       <c r="I36">
-        <v>45.64558717549957</v>
+        <v>48.98149801273775</v>
       </c>
       <c r="J36">
-        <v>354.2867922576656</v>
+        <v>348.0449785671603</v>
       </c>
       <c r="K36">
-        <v>1773.823383190607</v>
+        <v>1827.577215395157</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>47.31039975962988</v>
+        <v>45.02849251433182</v>
       </c>
       <c r="G37">
-        <v>350.934151496531</v>
+        <v>369.2859878557474</v>
       </c>
       <c r="H37">
-        <v>1765.532997526451</v>
+        <v>1868.27898974146</v>
       </c>
       <c r="I37">
-        <v>117.1305719669253</v>
+        <v>114.2374996057333</v>
       </c>
       <c r="J37">
-        <v>291.1548125756211</v>
+        <v>288.8804095539474</v>
       </c>
       <c r="K37">
-        <v>1690.451196463639</v>
+        <v>1577.155854821284</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>45.77329032492536</v>
+        <v>44.59167939856826</v>
       </c>
       <c r="G38">
-        <v>378.9873988510082</v>
+        <v>397.4998581064039</v>
       </c>
       <c r="H38">
-        <v>1833.728654167564</v>
+        <v>1852.0049976758</v>
       </c>
       <c r="I38">
-        <v>186.72096178778</v>
+        <v>189.094012587492</v>
       </c>
       <c r="J38">
-        <v>237.1898923930454</v>
+        <v>240.6245587028462</v>
       </c>
       <c r="K38">
-        <v>1456.983380196714</v>
+        <v>1353.00890557204</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>45.84231102841982</v>
+        <v>45.82056649738146</v>
       </c>
       <c r="G39">
-        <v>396.8214872682292</v>
+        <v>389.6268869222304</v>
       </c>
       <c r="H39">
-        <v>1850.878907283055</v>
+        <v>1850.384609751228</v>
       </c>
       <c r="I39">
-        <v>267.2135869143305</v>
+        <v>252.8710393551173</v>
       </c>
       <c r="J39">
-        <v>201.8349960169687</v>
+        <v>206.4711015735344</v>
       </c>
       <c r="K39">
-        <v>1199.783272507907</v>
+        <v>1185.509327315366</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>45.95665625818064</v>
+        <v>45.92640375097265</v>
       </c>
       <c r="G40">
-        <v>410.4932219784055</v>
+        <v>397.9590804265742</v>
       </c>
       <c r="H40">
-        <v>1893.041596138865</v>
+        <v>1890.334242514732</v>
       </c>
       <c r="I40">
-        <v>340.0567446241789</v>
+        <v>329.239545627703</v>
       </c>
       <c r="J40">
-        <v>154.1957792465003</v>
+        <v>157.1930719266517</v>
       </c>
       <c r="K40">
-        <v>931.9252899141983</v>
+        <v>894.0088972661122</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>44.570829491183</v>
+        <v>42.6708677893337</v>
       </c>
       <c r="G41">
-        <v>427.504850941558</v>
+        <v>449.314751898973</v>
       </c>
       <c r="H41">
-        <v>1846.913951168151</v>
+        <v>1924.235180698768</v>
       </c>
       <c r="I41">
-        <v>384.4164169242523</v>
+        <v>401.2662275176272</v>
       </c>
       <c r="J41">
-        <v>104.7128965394174</v>
+        <v>97.56190551806122</v>
       </c>
       <c r="K41">
-        <v>627.6321021615188</v>
+        <v>635.1391971509348</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>43.75973903254346</v>
+        <v>40.71557827755823</v>
       </c>
       <c r="G42">
-        <v>461.1850276305112</v>
+        <v>447.1154547416677</v>
       </c>
       <c r="H42">
-        <v>1835.755489427539</v>
+        <v>1968.105863699021</v>
       </c>
       <c r="I42">
-        <v>485.5570952863293</v>
+        <v>494.4853935813646</v>
       </c>
       <c r="J42">
-        <v>55.97992434198583</v>
+        <v>56.39820230936756</v>
       </c>
       <c r="K42">
-        <v>344.820169865122</v>
+        <v>338.3091271518338</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>42.07937289313194</v>
+        <v>42.64032658807803</v>
       </c>
       <c r="G43">
-        <v>440.9628169784704</v>
+        <v>468.3174647503005</v>
       </c>
       <c r="H43">
-        <v>1842.275338521263</v>
+        <v>1887.998257212762</v>
       </c>
       <c r="I43">
-        <v>532.1324429448056</v>
+        <v>530.475482661892</v>
       </c>
       <c r="J43">
-        <v>5.509864965289384</v>
+        <v>5.065945154341329</v>
       </c>
       <c r="K43">
-        <v>33.51049429182131</v>
+        <v>33.91292342221383</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>42.17029074877129</v>
+        <v>43.03090355452766</v>
       </c>
       <c r="G44">
-        <v>492.5025223616382</v>
+        <v>467.3459107043558</v>
       </c>
       <c r="H44">
-        <v>1972.910520000697</v>
+        <v>1857.196896937143</v>
       </c>
       <c r="I44">
-        <v>621.6688871419308</v>
+        <v>624.1404575388893</v>
       </c>
       <c r="J44">
-        <v>-41.99685440639354</v>
+        <v>-45.1437628481703</v>
       </c>
       <c r="K44">
-        <v>-293.5934447645357</v>
+        <v>-287.5768857288833</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>42.5659041232839</v>
+        <v>41.99550890416077</v>
       </c>
       <c r="G45">
-        <v>492.2036890689396</v>
+        <v>505.8882506134322</v>
       </c>
       <c r="H45">
-        <v>1916.801041317261</v>
+        <v>1947.483035368916</v>
       </c>
       <c r="I45">
-        <v>694.4694066352797</v>
+        <v>727.5205369042347</v>
       </c>
       <c r="J45">
-        <v>-96.33890416886585</v>
+        <v>-96.4530082635591</v>
       </c>
       <c r="K45">
-        <v>-632.1492455741795</v>
+        <v>-628.6846778153455</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>40.08463645051616</v>
+        <v>40.00137185066508</v>
       </c>
       <c r="G46">
-        <v>512.6414208692576</v>
+        <v>501.9851690608986</v>
       </c>
       <c r="H46">
-        <v>1895.929995709733</v>
+        <v>1898.148564523723</v>
       </c>
       <c r="I46">
-        <v>844.7264950444155</v>
+        <v>795.6892859205714</v>
       </c>
       <c r="J46">
-        <v>-146.9192574007853</v>
+        <v>-141.3316020174533</v>
       </c>
       <c r="K46">
-        <v>-996.4423120682237</v>
+        <v>-958.047832182303</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>41.09867988762094</v>
+        <v>38.10873478705643</v>
       </c>
       <c r="G47">
-        <v>552.9600547529321</v>
+        <v>550.8523522505784</v>
       </c>
       <c r="H47">
-        <v>1924.230933933383</v>
+        <v>1861.762213865162</v>
       </c>
       <c r="I47">
-        <v>910.0007412184954</v>
+        <v>920.8753024773533</v>
       </c>
       <c r="J47">
-        <v>-188.278690805178</v>
+        <v>-189.4520710679497</v>
       </c>
       <c r="K47">
-        <v>-1290.973150250814</v>
+        <v>-1356.271285115557</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>38.2033864447892</v>
+        <v>40.64469163265394</v>
       </c>
       <c r="G48">
-        <v>557.4025807515048</v>
+        <v>539.5440408892974</v>
       </c>
       <c r="H48">
-        <v>1993.134775739856</v>
+        <v>1976.348720835015</v>
       </c>
       <c r="I48">
-        <v>1021.109107608091</v>
+        <v>978.0636849879075</v>
       </c>
       <c r="J48">
-        <v>-231.8280473251671</v>
+        <v>-239.7491436729932</v>
       </c>
       <c r="K48">
-        <v>-1760.04515265166</v>
+        <v>-1683.409512295616</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>37.30227522175336</v>
+        <v>38.34174877939127</v>
       </c>
       <c r="G49">
-        <v>549.5286373359488</v>
+        <v>569.9552762821513</v>
       </c>
       <c r="H49">
-        <v>2008.740470062222</v>
+        <v>1919.568416001403</v>
       </c>
       <c r="I49">
-        <v>1022.896449614857</v>
+        <v>1104.788923257375</v>
       </c>
       <c r="J49">
-        <v>-286.9538326887122</v>
+        <v>-284.8408146452352</v>
       </c>
       <c r="K49">
-        <v>-2077.065849479204</v>
+        <v>-2064.637424459716</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>38.35044474315529</v>
+        <v>39.82742970767741</v>
       </c>
       <c r="G50">
-        <v>552.1539306574711</v>
+        <v>566.6115970590416</v>
       </c>
       <c r="H50">
-        <v>1882.369047858219</v>
+        <v>1962.100231628973</v>
       </c>
       <c r="I50">
-        <v>1187.072881842249</v>
+        <v>1154.721202292388</v>
       </c>
       <c r="J50">
-        <v>-337.5106137240999</v>
+        <v>-324.8854634128746</v>
       </c>
       <c r="K50">
-        <v>-2587.013404946796</v>
+        <v>-2559.251271184552</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>38.61469575691979</v>
+        <v>36.25965732605979</v>
       </c>
       <c r="G51">
-        <v>575.1118392390182</v>
+        <v>600.4777485842951</v>
       </c>
       <c r="H51">
-        <v>1912.262194488286</v>
+        <v>1969.798516021318</v>
       </c>
       <c r="I51">
-        <v>1261.57468908246</v>
+        <v>1233.548315836995</v>
       </c>
       <c r="J51">
-        <v>-368.4050047058678</v>
+        <v>-399.0284431569676</v>
       </c>
       <c r="K51">
-        <v>-3022.191773869702</v>
+        <v>-2934.982247078107</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.84821178527037</v>
+        <v>38.19669897228378</v>
       </c>
       <c r="G52">
-        <v>632.0759750849447</v>
+        <v>639.8824343955262</v>
       </c>
       <c r="H52">
-        <v>1965.701988553474</v>
+        <v>1927.086928977542</v>
       </c>
       <c r="I52">
-        <v>1362.405273256175</v>
+        <v>1403.480229645748</v>
       </c>
       <c r="J52">
-        <v>-427.5864145663999</v>
+        <v>-444.5986489318328</v>
       </c>
       <c r="K52">
-        <v>-3390.272820555785</v>
+        <v>-3397.244436063485</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>36.91183296941635</v>
+        <v>37.49140703853664</v>
       </c>
       <c r="G53">
-        <v>640.3471968727125</v>
+        <v>624.0949553221679</v>
       </c>
       <c r="H53">
-        <v>1934.462643917449</v>
+        <v>1937.85831165959</v>
       </c>
       <c r="I53">
-        <v>1419.754697884593</v>
+        <v>1459.425067731753</v>
       </c>
       <c r="J53">
-        <v>-496.9432450362325</v>
+        <v>-476.7239618803316</v>
       </c>
       <c r="K53">
-        <v>-3720.888386343813</v>
+        <v>-3655.429769124842</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.74605201265369</v>
+        <v>35.80846033896332</v>
       </c>
       <c r="G54">
-        <v>629.4175115536965</v>
+        <v>616.2865206364492</v>
       </c>
       <c r="H54">
-        <v>1976.483797383697</v>
+        <v>2060.473793740302</v>
       </c>
       <c r="I54">
-        <v>1504.22727382479</v>
+        <v>1584.860422617534</v>
       </c>
       <c r="J54">
-        <v>-516.9035956751768</v>
+        <v>-531.5343210161166</v>
       </c>
       <c r="K54">
-        <v>-4082.233546708767</v>
+        <v>-4237.473460622515</v>
       </c>
     </row>
   </sheetData>
